--- a/data/trans_orig/PLURIPATOLOGIA_DISC-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PLURIPATOLOGIA_DISC-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06190E4D-464F-4D57-8EB2-6E9F7D644002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11AE9F8E-1FAD-4390-8D8A-A2A60E4AFE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E28593EB-0462-4051-860C-CCB42634B778}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DF3720AE-F45E-4E80-8BFA-6B4145C67BB3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="337">
   <si>
     <t>Población con cinco o más enfermedades crónicas discapacitantes en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -227,7 +227,7 @@
     <t>0,87%</t>
   </si>
   <si>
-    <t>2,19%</t>
+    <t>2,15%</t>
   </si>
   <si>
     <t>0,41%</t>
@@ -236,19 +236,19 @@
     <t>0,13%</t>
   </si>
   <si>
-    <t>1,05%</t>
+    <t>1,07%</t>
   </si>
   <si>
     <t>99,13%</t>
   </si>
   <si>
-    <t>97,81%</t>
+    <t>97,85%</t>
   </si>
   <si>
     <t>99,59%</t>
   </si>
   <si>
-    <t>98,95%</t>
+    <t>98,93%</t>
   </si>
   <si>
     <t>99,87%</t>
@@ -257,805 +257,799 @@
     <t>0,28%</t>
   </si>
   <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas discapacitantes en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
   </si>
   <si>
     <t>98,89%</t>
   </si>
   <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
   </si>
   <si>
     <t>4,29%</t>
   </si>
   <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
   </si>
   <si>
     <t>95,71%</t>
   </si>
   <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas discapacitantes en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas discapacitantes en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
   </si>
   <si>
     <t>2,35%</t>
   </si>
   <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
   </si>
   <si>
     <t>97,65%</t>
   </si>
   <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
   </si>
   <si>
     <t>5,49%</t>
   </si>
   <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
   </si>
   <si>
     <t>94,51%</t>
   </si>
   <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas discapacitantes en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
     <t>95,27%</t>
   </si>
   <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
   </si>
 </sst>
 </file>
@@ -1467,7 +1461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9099C90A-B224-40F1-9A1B-5E8CB2AAE5E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F690F0-8BBF-4F6E-A6FA-433FAC6B1AB5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2599,7 +2593,7 @@
         <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>17</v>
@@ -2650,7 +2644,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -2686,7 +2680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB6D9C9-176E-443A-8650-90F312AFF35E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508C46DF-6A31-4846-8B7F-A49F0F3ADB79}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3153,7 +3147,7 @@
         <v>75</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>76</v>
@@ -3207,7 +3201,7 @@
         <v>82</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3278,10 +3272,10 @@
         <v>83</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -3290,13 +3284,13 @@
         <v>11826</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -3305,13 +3299,13 @@
         <v>15114</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,13 +3320,13 @@
         <v>611329</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="H14" s="7">
         <v>528</v>
@@ -3341,13 +3335,13 @@
         <v>604373</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M14" s="7">
         <v>1073</v>
@@ -3356,13 +3350,13 @@
         <v>1215702</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,13 +3424,13 @@
         <v>5194</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -3445,13 +3439,13 @@
         <v>27852</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -3460,13 +3454,13 @@
         <v>33046</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3481,13 +3475,13 @@
         <v>424235</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H17" s="7">
         <v>379</v>
@@ -3773,10 +3767,10 @@
         <v>141</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,13 +3785,13 @@
         <v>3381111</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H23" s="7">
         <v>3155</v>
@@ -3806,13 +3800,13 @@
         <v>3403778</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M23" s="7">
         <v>6322</v>
@@ -3821,13 +3815,13 @@
         <v>6784888</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3905,7 +3899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D6A111-93BB-468B-BC3F-4A6000B76C35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0BA418-8755-4636-8A2E-31D5550B6478}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3922,7 +3916,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4050,7 +4044,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4098,7 +4092,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4190,7 +4184,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4205,7 +4199,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -4214,13 +4208,13 @@
         <v>2278</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,7 +4232,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -4253,7 +4247,7 @@
         <v>36</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -4265,10 +4259,10 @@
         <v>1151762</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -4345,7 +4339,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4354,13 +4348,13 @@
         <v>2805</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -4369,13 +4363,13 @@
         <v>2805</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,7 +4387,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -4405,10 +4399,10 @@
         <v>658581</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>70</v>
@@ -4420,13 +4414,13 @@
         <v>1327678</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,13 +4488,13 @@
         <v>7145</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>72</v>
+        <v>170</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -4509,13 +4503,13 @@
         <v>15049</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -4524,13 +4518,13 @@
         <v>22194</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +4539,13 @@
         <v>638903</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="H14" s="7">
         <v>588</v>
@@ -4560,28 +4554,28 @@
         <v>634028</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>181</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>1163</v>
       </c>
       <c r="N14" s="7">
-        <v>1272931</v>
+        <v>1272932</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4623,7 +4617,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4962,10 +4956,10 @@
         <v>220</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H22" s="7">
         <v>112</v>
@@ -4974,13 +4968,13 @@
         <v>128277</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M22" s="7">
         <v>145</v>
@@ -4989,13 +4983,13 @@
         <v>161860</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,13 +5004,13 @@
         <v>3360766</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>230</v>
-      </c>
       <c r="G23" s="7" t="s">
-        <v>231</v>
+        <v>98</v>
       </c>
       <c r="H23" s="7">
         <v>3226</v>
@@ -5025,13 +5019,13 @@
         <v>3416265</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M23" s="7">
         <v>6424</v>
@@ -5040,13 +5034,13 @@
         <v>6777032</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5124,7 +5118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0BE8795-5561-430C-8DD2-1027FFC926F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08BFE97-7603-47E0-A53C-D3C602EF293E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5141,7 +5135,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5254,7 +5248,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>72</v>
+        <v>170</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -5263,13 +5257,13 @@
         <v>4944</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -5278,13 +5272,13 @@
         <v>4944</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5302,7 +5296,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -5314,10 +5308,10 @@
         <v>350013</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -5329,10 +5323,10 @@
         <v>727692</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -5409,7 +5403,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -5418,13 +5412,13 @@
         <v>4682</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>248</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -5433,13 +5427,13 @@
         <v>6063</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>248</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5457,7 +5451,7 @@
         <v>27</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -5469,13 +5463,13 @@
         <v>494533</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>254</v>
+        <v>33</v>
       </c>
       <c r="M8" s="7">
         <v>757</v>
@@ -5484,13 +5478,13 @@
         <v>921548</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>43</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5558,13 +5552,13 @@
         <v>10574</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -5573,13 +5567,13 @@
         <v>10828</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>261</v>
+        <v>136</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -5588,13 +5582,13 @@
         <v>21402</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,13 +5603,13 @@
         <v>546678</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H11" s="7">
         <v>833</v>
@@ -5624,13 +5618,13 @@
         <v>599619</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>271</v>
+        <v>144</v>
       </c>
       <c r="M11" s="7">
         <v>1370</v>
@@ -5639,13 +5633,13 @@
         <v>1146297</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5713,13 +5707,13 @@
         <v>21817</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H13" s="7">
         <v>52</v>
@@ -5728,13 +5722,13 @@
         <v>41605</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>209</v>
+        <v>274</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>278</v>
+        <v>190</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>279</v>
+        <v>124</v>
       </c>
       <c r="M13" s="7">
         <v>72</v>
@@ -5743,13 +5737,13 @@
         <v>63422</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5764,13 +5758,13 @@
         <v>702173</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H14" s="7">
         <v>1089</v>
@@ -5779,28 +5773,28 @@
         <v>705656</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>219</v>
+        <v>280</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>285</v>
+        <v>134</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>286</v>
+        <v>199</v>
       </c>
       <c r="M14" s="7">
         <v>1734</v>
       </c>
       <c r="N14" s="7">
-        <v>1407830</v>
+        <v>1407829</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -5868,13 +5862,13 @@
         <v>18170</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="H16" s="7">
         <v>63</v>
@@ -5883,13 +5877,13 @@
         <v>38631</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="M16" s="7">
         <v>85</v>
@@ -5898,13 +5892,13 @@
         <v>56802</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>204</v>
+        <v>289</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5919,13 +5913,13 @@
         <v>581987</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="H17" s="7">
         <v>939</v>
@@ -5934,13 +5928,13 @@
         <v>558432</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M17" s="7">
         <v>1580</v>
@@ -5949,13 +5943,13 @@
         <v>1140418</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>298</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6023,13 +6017,13 @@
         <v>48355</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="H19" s="7">
         <v>261</v>
@@ -6038,13 +6032,13 @@
         <v>140477</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M19" s="7">
         <v>339</v>
@@ -6053,13 +6047,13 @@
         <v>188831</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6071,16 +6065,16 @@
         <v>950</v>
       </c>
       <c r="D20" s="7">
-        <v>649399</v>
+        <v>649400</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="H20" s="7">
         <v>1447</v>
@@ -6089,13 +6083,13 @@
         <v>886160</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M20" s="7">
         <v>2397</v>
@@ -6104,13 +6098,13 @@
         <v>1535561</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6122,7 +6116,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -6178,13 +6172,13 @@
         <v>100298</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="H22" s="7">
         <v>398</v>
@@ -6193,13 +6187,13 @@
         <v>241167</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="M22" s="7">
         <v>528</v>
@@ -6208,13 +6202,13 @@
         <v>341465</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,13 +6223,13 @@
         <v>3284930</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="H23" s="7">
         <v>4969</v>
@@ -6244,28 +6238,28 @@
         <v>3594414</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="M23" s="7">
         <v>8215</v>
       </c>
       <c r="N23" s="7">
-        <v>6879344</v>
+        <v>6879343</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,7 +6301,7 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/PLURIPATOLOGIA_DISC-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PLURIPATOLOGIA_DISC-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11AE9F8E-1FAD-4390-8D8A-A2A60E4AFE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FE06379-1F74-4F68-A569-E7B9115C2F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DF3720AE-F45E-4E80-8BFA-6B4145C67BB3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6CCAFD08-39E8-4CC2-A06C-6B5D6A3272CD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="335">
   <si>
     <t>Población con cinco o más enfermedades crónicas discapacitantes en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -227,7 +227,7 @@
     <t>0,87%</t>
   </si>
   <si>
-    <t>2,15%</t>
+    <t>2,06%</t>
   </si>
   <si>
     <t>0,41%</t>
@@ -236,19 +236,19 @@
     <t>0,13%</t>
   </si>
   <si>
-    <t>1,07%</t>
+    <t>1,08%</t>
   </si>
   <si>
     <t>99,13%</t>
   </si>
   <si>
-    <t>97,85%</t>
+    <t>97,94%</t>
   </si>
   <si>
     <t>99,59%</t>
   </si>
   <si>
-    <t>98,93%</t>
+    <t>98,92%</t>
   </si>
   <si>
     <t>99,87%</t>
@@ -257,43 +257,43 @@
     <t>0,28%</t>
   </si>
   <si>
-    <t>1,01%</t>
+    <t>0,98%</t>
   </si>
   <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>1,82%</t>
+    <t>1,84%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>1,09%</t>
+    <t>1,17%</t>
   </si>
   <si>
     <t>99,72%</t>
   </si>
   <si>
-    <t>98,99%</t>
+    <t>99,02%</t>
   </si>
   <si>
     <t>99,14%</t>
   </si>
   <si>
-    <t>98,18%</t>
+    <t>98,16%</t>
   </si>
   <si>
     <t>99,42%</t>
   </si>
   <si>
-    <t>98,91%</t>
+    <t>98,83%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>1,28%</t>
+    <t>1,45%</t>
   </si>
   <si>
     <t>1,92%</t>
@@ -302,594 +302,594 @@
     <t>1,03%</t>
   </si>
   <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas discapacitantes en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas discapacitantes en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
     <t>3,31%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
   </si>
   <si>
     <t>96,69%</t>
   </si>
   <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas discapacitantes en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas discapacitantes en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
     <t>3,03%</t>
   </si>
   <si>
@@ -965,9 +965,6 @@
     <t>10,95%</t>
   </si>
   <si>
-    <t>8,63%</t>
-  </si>
-  <si>
     <t>12,35%</t>
   </si>
   <si>
@@ -993,9 +990,6 @@
   </si>
   <si>
     <t>87,65%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
   </si>
   <si>
     <t>2,96%</t>
@@ -1461,7 +1455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F690F0-8BBF-4F6E-A6FA-433FAC6B1AB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C057D8-8147-46C4-A9DE-0588545D8662}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2563,7 +2557,7 @@
         <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
@@ -2614,7 +2608,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -2680,7 +2674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508C46DF-6A31-4846-8B7F-A49F0F3ADB79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93BE5C05-3D47-42A2-86AF-7E086D925290}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3132,7 +3126,7 @@
         <v>73</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>74</v>
@@ -3147,7 +3141,7 @@
         <v>75</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>76</v>
@@ -3186,7 +3180,7 @@
         <v>80</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="M11" s="7">
         <v>1310</v>
@@ -3201,7 +3195,7 @@
         <v>82</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3272,7 +3266,7 @@
         <v>83</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>84</v>
@@ -3326,7 +3320,7 @@
         <v>92</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="H14" s="7">
         <v>528</v>
@@ -3427,10 +3421,10 @@
         <v>99</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -3439,13 +3433,13 @@
         <v>27852</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -3454,13 +3448,13 @@
         <v>33046</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,13 +3469,13 @@
         <v>424235</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="H17" s="7">
         <v>379</v>
@@ -3490,13 +3484,13 @@
         <v>419948</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>767</v>
@@ -3505,13 +3499,13 @@
         <v>844183</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3579,13 +3573,13 @@
         <v>35260</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H19" s="7">
         <v>95</v>
@@ -3594,13 +3588,13 @@
         <v>103447</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M19" s="7">
         <v>127</v>
@@ -3609,13 +3603,13 @@
         <v>138707</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3630,13 +3624,13 @@
         <v>524377</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>599</v>
@@ -3645,13 +3639,13 @@
         <v>639528</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>1071</v>
@@ -3660,13 +3654,13 @@
         <v>1163905</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,13 +3728,13 @@
         <v>45668</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H22" s="7">
         <v>143</v>
@@ -3749,13 +3743,13 @@
         <v>154531</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M22" s="7">
         <v>185</v>
@@ -3764,13 +3758,13 @@
         <v>200200</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,10 +3812,10 @@
         <v>148</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,7 +3893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0BA418-8755-4636-8A2E-31D5550B6478}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EAA58B8-1684-4492-B60A-DB492F932195}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3916,7 +3910,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4044,7 +4038,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4092,7 +4086,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4184,7 +4178,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4199,7 +4193,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -4208,13 +4202,13 @@
         <v>2278</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,7 +4226,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -4247,7 +4241,7 @@
         <v>36</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -4259,10 +4253,10 @@
         <v>1151762</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -4339,7 +4333,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4348,13 +4342,13 @@
         <v>2805</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -4363,13 +4357,13 @@
         <v>2805</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>163</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,7 +4381,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -4399,10 +4393,10 @@
         <v>658581</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>70</v>
@@ -4414,13 +4408,13 @@
         <v>1327678</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4488,13 +4482,13 @@
         <v>7145</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -4503,13 +4497,13 @@
         <v>15049</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>84</v>
+        <v>175</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -4518,13 +4512,13 @@
         <v>22194</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,13 +4533,13 @@
         <v>638903</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="H14" s="7">
         <v>588</v>
@@ -4554,28 +4548,28 @@
         <v>634028</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="M14" s="7">
         <v>1163</v>
       </c>
       <c r="N14" s="7">
-        <v>1272932</v>
+        <v>1272931</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,7 +4611,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4643,13 +4637,13 @@
         <v>8288</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -4658,13 +4652,13 @@
         <v>30164</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -4673,13 +4667,13 @@
         <v>38452</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,13 +4688,13 @@
         <v>469630</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H17" s="7">
         <v>406</v>
@@ -4709,13 +4703,13 @@
         <v>466685</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M17" s="7">
         <v>824</v>
@@ -4724,13 +4718,13 @@
         <v>936315</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4798,13 +4792,13 @@
         <v>18151</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H19" s="7">
         <v>66</v>
@@ -4813,13 +4807,13 @@
         <v>77979</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M19" s="7">
         <v>86</v>
@@ -4828,13 +4822,13 @@
         <v>96131</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4849,13 +4843,13 @@
         <v>573177</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H20" s="7">
         <v>589</v>
@@ -4864,13 +4858,13 @@
         <v>699952</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M20" s="7">
         <v>1196</v>
@@ -4879,13 +4873,13 @@
         <v>1273128</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4953,13 +4947,13 @@
         <v>33584</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H22" s="7">
         <v>112</v>
@@ -4968,13 +4962,13 @@
         <v>128277</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M22" s="7">
         <v>145</v>
@@ -4983,13 +4977,13 @@
         <v>161860</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5004,13 +4998,13 @@
         <v>3360766</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>228</v>
+        <v>144</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>3226</v>
@@ -5019,13 +5013,13 @@
         <v>3416265</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M23" s="7">
         <v>6424</v>
@@ -5034,13 +5028,13 @@
         <v>6777032</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,7 +5112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08BFE97-7603-47E0-A53C-D3C602EF293E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C56793-F2E7-4A44-894F-CDDCBFC4C3F6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5135,7 +5129,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5248,7 +5242,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -5257,13 +5251,13 @@
         <v>4944</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -5272,7 +5266,7 @@
         <v>4944</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>239</v>
+        <v>157</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
@@ -5296,7 +5290,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -5311,7 +5305,7 @@
         <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -5323,10 +5317,10 @@
         <v>727692</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -5403,7 +5397,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -5412,13 +5406,13 @@
         <v>4682</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -5427,13 +5421,13 @@
         <v>6063</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,10 +5457,10 @@
         <v>494533</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>33</v>
@@ -5478,13 +5472,13 @@
         <v>921548</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5552,13 +5546,13 @@
         <v>10574</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -5567,13 +5561,13 @@
         <v>10828</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -5582,13 +5576,13 @@
         <v>21402</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5603,13 +5597,13 @@
         <v>546678</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H11" s="7">
         <v>833</v>
@@ -5618,13 +5612,13 @@
         <v>599619</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="M11" s="7">
         <v>1370</v>
@@ -5633,13 +5627,13 @@
         <v>1146297</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5707,13 +5701,13 @@
         <v>21817</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>272</v>
+        <v>74</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H13" s="7">
         <v>52</v>
@@ -5722,13 +5716,13 @@
         <v>41605</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>124</v>
+        <v>272</v>
       </c>
       <c r="M13" s="7">
         <v>72</v>
@@ -5737,13 +5731,13 @@
         <v>63422</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5758,13 +5752,13 @@
         <v>702173</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>278</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>279</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>1089</v>
@@ -5773,13 +5767,13 @@
         <v>705656</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>134</v>
+        <v>279</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M14" s="7">
         <v>1734</v>
@@ -5788,13 +5782,13 @@
         <v>1407829</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6050,10 +6044,10 @@
         <v>307</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6068,13 +6062,13 @@
         <v>649400</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H20" s="7">
         <v>1447</v>
@@ -6083,13 +6077,13 @@
         <v>886160</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M20" s="7">
         <v>2397</v>
@@ -6098,13 +6092,13 @@
         <v>1535561</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>317</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>318</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6172,13 +6166,13 @@
         <v>100298</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="H22" s="7">
         <v>398</v>
@@ -6187,13 +6181,13 @@
         <v>241167</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="M22" s="7">
         <v>528</v>
@@ -6202,13 +6196,13 @@
         <v>341465</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6223,13 +6217,13 @@
         <v>3284930</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="H23" s="7">
         <v>4969</v>
@@ -6238,13 +6232,13 @@
         <v>3594414</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="M23" s="7">
         <v>8215</v>
@@ -6253,13 +6247,13 @@
         <v>6879343</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/PLURIPATOLOGIA_DISC-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PLURIPATOLOGIA_DISC-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FE06379-1F74-4F68-A569-E7B9115C2F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6188D9F-C6AD-47A1-A2BA-C8D0792C3BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6CCAFD08-39E8-4CC2-A06C-6B5D6A3272CD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2C88E08C-88EE-4E5B-8703-30B5872985A9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="339">
   <si>
     <t>Población con cinco o más enfermedades crónicas discapacitantes en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -227,823 +227,835 @@
     <t>0,87%</t>
   </si>
   <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
     <t>2,06%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
   </si>
   <si>
     <t>97,94%</t>
   </si>
   <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
   </si>
   <si>
     <t>0,98%</t>
   </si>
   <si>
-    <t>0,86%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas discapacitantes en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas discapacitantes en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
   </si>
   <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
   </si>
   <si>
     <t>98,16%</t>
   </si>
   <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas discapacitantes en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas discapacitantes en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
   </si>
   <si>
     <t>95,69%</t>
   </si>
   <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
+    <t>93,64%</t>
   </si>
   <si>
     <t>3,03%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
+    <t>4,63%</t>
   </si>
   <si>
     <t>6,47%</t>
   </si>
   <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
   </si>
   <si>
     <t>96,97%</t>
   </si>
   <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
+    <t>95,37%</t>
   </si>
   <si>
     <t>93,53%</t>
   </si>
   <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
   </si>
   <si>
     <t>6,93%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
   </si>
   <si>
     <t>13,68%</t>
   </si>
   <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
   </si>
   <si>
     <t>10,95%</t>
   </si>
   <si>
-    <t>12,35%</t>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
   </si>
   <si>
     <t>93,07%</t>
   </si>
   <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
   </si>
   <si>
     <t>86,32%</t>
   </si>
   <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
   </si>
   <si>
     <t>89,05%</t>
   </si>
   <si>
-    <t>87,65%</t>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
   </si>
   <si>
     <t>2,96%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
   </si>
   <si>
     <t>6,29%</t>
   </si>
   <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
   </si>
   <si>
     <t>4,73%</t>
   </si>
   <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
   </si>
   <si>
     <t>97,04%</t>
   </si>
   <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
   </si>
   <si>
     <t>93,71%</t>
   </si>
   <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
   </si>
   <si>
     <t>95,27%</t>
   </si>
   <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
   </si>
 </sst>
 </file>
@@ -1455,7 +1467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C057D8-8147-46C4-A9DE-0588545D8662}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26CBAA1-E019-4AAB-9550-25168CF75535}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2557,7 +2569,7 @@
         <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
@@ -2587,7 +2599,7 @@
         <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>17</v>
@@ -2608,7 +2620,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -2638,7 +2650,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -2674,7 +2686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93BE5C05-3D47-42A2-86AF-7E086D925290}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E512967-DB6D-46FA-86F3-08C5B5EE3BAE}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3126,7 +3138,7 @@
         <v>73</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>74</v>
@@ -3141,7 +3153,7 @@
         <v>75</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>76</v>
@@ -3180,7 +3192,7 @@
         <v>80</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="M11" s="7">
         <v>1310</v>
@@ -3195,7 +3207,7 @@
         <v>82</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,10 +3278,10 @@
         <v>83</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -3278,13 +3290,13 @@
         <v>11826</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -3293,13 +3305,13 @@
         <v>15114</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,13 +3326,13 @@
         <v>611329</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="H14" s="7">
         <v>528</v>
@@ -3329,13 +3341,13 @@
         <v>604373</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M14" s="7">
         <v>1073</v>
@@ -3344,13 +3356,13 @@
         <v>1215702</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,13 +3430,13 @@
         <v>5194</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>39</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -3433,13 +3445,13 @@
         <v>27852</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -3448,13 +3460,13 @@
         <v>33046</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,10 +3481,10 @@
         <v>424235</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>42</v>
@@ -3484,13 +3496,13 @@
         <v>419948</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>767</v>
@@ -3499,13 +3511,13 @@
         <v>844183</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,13 +3585,13 @@
         <v>35260</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H19" s="7">
         <v>95</v>
@@ -3588,13 +3600,13 @@
         <v>103447</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M19" s="7">
         <v>127</v>
@@ -3603,13 +3615,13 @@
         <v>138707</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,13 +3636,13 @@
         <v>524377</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>599</v>
@@ -3639,13 +3651,13 @@
         <v>639528</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>1071</v>
@@ -3654,13 +3666,13 @@
         <v>1163905</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,13 +3740,13 @@
         <v>45668</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H22" s="7">
         <v>143</v>
@@ -3743,13 +3755,13 @@
         <v>154531</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M22" s="7">
         <v>185</v>
@@ -3758,13 +3770,13 @@
         <v>200200</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,13 +3791,13 @@
         <v>3381111</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H23" s="7">
         <v>3155</v>
@@ -3794,13 +3806,13 @@
         <v>3403778</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M23" s="7">
         <v>6322</v>
@@ -3809,13 +3821,13 @@
         <v>6784888</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3893,7 +3905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EAA58B8-1684-4492-B60A-DB492F932195}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED57402-52AA-4111-84E7-824D12614BAF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3910,7 +3922,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4038,7 +4050,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4086,7 +4098,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4178,7 +4190,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4193,7 +4205,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -4202,13 +4214,13 @@
         <v>2278</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>157</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4226,7 +4238,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -4241,7 +4253,7 @@
         <v>36</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -4253,10 +4265,10 @@
         <v>1151762</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -4363,7 +4375,7 @@
         <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>75</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4381,7 +4393,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -4393,10 +4405,10 @@
         <v>658581</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>70</v>
@@ -4408,13 +4420,13 @@
         <v>1327678</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,13 +4494,13 @@
         <v>7145</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>172</v>
+        <v>72</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -4497,10 +4509,10 @@
         <v>15049</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>176</v>
@@ -4515,10 +4527,10 @@
         <v>177</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,13 +4545,13 @@
         <v>638903</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="H14" s="7">
         <v>588</v>
@@ -4548,13 +4560,13 @@
         <v>634028</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="M14" s="7">
         <v>1163</v>
@@ -4563,13 +4575,13 @@
         <v>1272931</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>187</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,13 +4649,13 @@
         <v>8288</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -4652,13 +4664,13 @@
         <v>30164</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -4667,13 +4679,13 @@
         <v>38452</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,13 +4700,13 @@
         <v>469630</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H17" s="7">
         <v>406</v>
@@ -4703,13 +4715,13 @@
         <v>466685</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M17" s="7">
         <v>824</v>
@@ -4718,13 +4730,13 @@
         <v>936315</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +4804,13 @@
         <v>18151</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H19" s="7">
         <v>66</v>
@@ -4807,13 +4819,13 @@
         <v>77979</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M19" s="7">
         <v>86</v>
@@ -4822,13 +4834,13 @@
         <v>96131</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,13 +4855,13 @@
         <v>573177</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H20" s="7">
         <v>589</v>
@@ -4858,13 +4870,13 @@
         <v>699952</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M20" s="7">
         <v>1196</v>
@@ -4873,13 +4885,13 @@
         <v>1273128</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4947,13 +4959,13 @@
         <v>33584</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>134</v>
+        <v>220</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H22" s="7">
         <v>112</v>
@@ -4962,13 +4974,13 @@
         <v>128277</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M22" s="7">
         <v>145</v>
@@ -4977,13 +4989,13 @@
         <v>161860</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4998,13 +5010,13 @@
         <v>3360766</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>144</v>
+        <v>229</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>3226</v>
@@ -5112,7 +5124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C56793-F2E7-4A44-894F-CDDCBFC4C3F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5FCD9E5-9591-4F33-80F3-1B255EE3167B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5242,7 +5254,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>172</v>
+        <v>72</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -5257,7 +5269,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -5266,13 +5278,13 @@
         <v>4944</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>157</v>
+        <v>241</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5290,7 +5302,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -5302,10 +5314,10 @@
         <v>350013</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -5317,10 +5329,10 @@
         <v>727692</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -5397,7 +5409,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -5406,13 +5418,13 @@
         <v>4682</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>31</v>
+        <v>248</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -5421,13 +5433,13 @@
         <v>6063</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>246</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5445,7 +5457,7 @@
         <v>27</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -5457,13 +5469,13 @@
         <v>494533</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>33</v>
+        <v>254</v>
       </c>
       <c r="M8" s="7">
         <v>757</v>
@@ -5472,13 +5484,13 @@
         <v>921548</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>252</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5546,13 +5558,13 @@
         <v>10574</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -5561,13 +5573,13 @@
         <v>10828</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>72</v>
+        <v>261</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -5576,13 +5588,13 @@
         <v>21402</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5597,13 +5609,13 @@
         <v>546678</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="H11" s="7">
         <v>833</v>
@@ -5612,13 +5624,13 @@
         <v>599619</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>78</v>
+        <v>271</v>
       </c>
       <c r="M11" s="7">
         <v>1370</v>
@@ -5627,13 +5639,13 @@
         <v>1146297</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5701,13 +5713,13 @@
         <v>21817</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>74</v>
+        <v>276</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="H13" s="7">
         <v>52</v>
@@ -5716,13 +5728,13 @@
         <v>41605</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>271</v>
+        <v>209</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="M13" s="7">
         <v>72</v>
@@ -5731,13 +5743,13 @@
         <v>63422</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>274</v>
+        <v>88</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5752,13 +5764,13 @@
         <v>702173</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>284</v>
       </c>
       <c r="H14" s="7">
         <v>1089</v>
@@ -5767,28 +5779,28 @@
         <v>705656</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>278</v>
+        <v>219</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>203</v>
+        <v>286</v>
       </c>
       <c r="M14" s="7">
         <v>1734</v>
       </c>
       <c r="N14" s="7">
-        <v>1407829</v>
+        <v>1407830</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,7 +5842,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -5856,13 +5868,13 @@
         <v>18170</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="H16" s="7">
         <v>63</v>
@@ -5871,13 +5883,13 @@
         <v>38631</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="M16" s="7">
         <v>85</v>
@@ -5886,13 +5898,13 @@
         <v>56802</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>289</v>
+        <v>204</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5907,13 +5919,13 @@
         <v>581987</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="H17" s="7">
         <v>939</v>
@@ -5922,13 +5934,13 @@
         <v>558432</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="M17" s="7">
         <v>1580</v>
@@ -5937,13 +5949,13 @@
         <v>1140418</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>298</v>
+        <v>212</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6011,13 +6023,13 @@
         <v>48355</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H19" s="7">
         <v>261</v>
@@ -6026,13 +6038,13 @@
         <v>140477</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M19" s="7">
         <v>339</v>
@@ -6041,13 +6053,13 @@
         <v>188831</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>214</v>
+        <v>310</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6059,16 +6071,16 @@
         <v>950</v>
       </c>
       <c r="D20" s="7">
-        <v>649400</v>
+        <v>649399</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H20" s="7">
         <v>1447</v>
@@ -6077,13 +6089,13 @@
         <v>886160</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="M20" s="7">
         <v>2397</v>
@@ -6092,13 +6104,13 @@
         <v>1535561</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>222</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6110,7 +6122,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -6166,13 +6178,13 @@
         <v>100298</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H22" s="7">
         <v>398</v>
@@ -6181,13 +6193,13 @@
         <v>241167</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="M22" s="7">
         <v>528</v>
@@ -6196,13 +6208,13 @@
         <v>341465</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6217,13 +6229,13 @@
         <v>3284930</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="H23" s="7">
         <v>4969</v>
@@ -6232,28 +6244,28 @@
         <v>3594414</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="M23" s="7">
         <v>8215</v>
       </c>
       <c r="N23" s="7">
-        <v>6879343</v>
+        <v>6879344</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,7 +6307,7 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
